--- a/approaches/agora_data/our_ground_truth/Github CreateOrganizationRepository/response_property_constraints.xlsx
+++ b/approaches/agora_data/our_ground_truth/Github CreateOrganizationRepository/response_property_constraints.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\agora_data\our_ground_truth\Github CreateOrganizationRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A62AFF-B9D3-4F34-9F9B-55100C9B88EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3467503C-2916-4C33-9DB9-FAAAE8A41AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="1695" windowWidth="23235" windowHeight="13785"/>
+    <workbookView xWindow="11550" yWindow="1110" windowWidth="18615" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_property_constraints" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="130">
   <si>
     <t>operation</t>
   </si>
@@ -404,12 +404,18 @@
   </si>
   <si>
     <t>The repository visibility: public, private, or internal</t>
+  </si>
+  <si>
+    <t>{"type": "string", "format": "uri"}</t>
+  </si>
+  <si>
+    <t>{"type": "string", "example": "\"2020-07-09T00:17:55Z\""}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1243,10 +1249,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2132,6 +2140,34 @@
         <v>127</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
